--- a/data/经济人口信息.xlsx
+++ b/data/经济人口信息.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feijunbo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习资料\竞赛\学校基础设施预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1935470-2BB5-45D5-8CC0-2C7F9D6A7975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A096846A-5A7C-43F3-8D46-554723CC2D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>年份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,30 @@
   </si>
   <si>
     <t>中学生数(万人)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幼儿园教职工数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小学教职工数(万人)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中学教职工数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幼儿园平均教职工数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小学平均教职工数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中学平均教职工数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -168,7 +192,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -192,6 +216,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -475,26 +509,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="T40" sqref="T40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.1328125" customWidth="1"/>
-    <col min="3" max="3" width="17.1328125" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
     <col min="4" max="5" width="20.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.265625" customWidth="1"/>
-    <col min="7" max="7" width="13.59765625" customWidth="1"/>
-    <col min="8" max="8" width="14.265625" customWidth="1"/>
-    <col min="10" max="10" width="11.53125" customWidth="1"/>
-    <col min="11" max="11" width="16.3984375" customWidth="1"/>
-    <col min="13" max="13" width="16.86328125" customWidth="1"/>
+    <col min="6" max="6" width="14.25" customWidth="1"/>
+    <col min="7" max="7" width="13.58203125" customWidth="1"/>
+    <col min="8" max="8" width="14.25" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="16.4140625" customWidth="1"/>
+    <col min="13" max="13" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -534,8 +568,26 @@
       <c r="M1" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+      <c r="N1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1978</v>
       </c>
@@ -578,8 +630,29 @@
         <f t="shared" ref="M2:M44" si="1">ROUND((G2*10000)/L2,2)</f>
         <v>523.91999999999996</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+      <c r="N2" s="5">
+        <v>13400</v>
+      </c>
+      <c r="O2" s="11">
+        <v>18.07</v>
+      </c>
+      <c r="P2" s="12">
+        <v>12.29</v>
+      </c>
+      <c r="Q2">
+        <f>ROUND(N2/I2,2)</f>
+        <v>4.32</v>
+      </c>
+      <c r="R2" s="10">
+        <f>ROUND(O2*10000/J2,2)</f>
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="S2">
+        <f>ROUND(P2*10000/L2,2)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1979</v>
       </c>
@@ -622,8 +695,29 @@
         <f t="shared" si="1"/>
         <v>492.17</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+      <c r="N3" s="5">
+        <v>13400</v>
+      </c>
+      <c r="O3" s="11">
+        <v>18.38</v>
+      </c>
+      <c r="P3" s="12">
+        <v>11.04</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q44" si="3">ROUND(N3/I3,2)</f>
+        <v>4.32</v>
+      </c>
+      <c r="R3" s="10">
+        <f t="shared" ref="R3:R44" si="4">ROUND(O3*10000/J3,2)</f>
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S44" si="5">ROUND(P3*10000/L3,2)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1980</v>
       </c>
@@ -666,8 +760,29 @@
         <f t="shared" si="1"/>
         <v>501.45</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+      <c r="N4" s="5">
+        <v>20601</v>
+      </c>
+      <c r="O4" s="11">
+        <v>18.45</v>
+      </c>
+      <c r="P4" s="12">
+        <v>11.45</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="3"/>
+        <v>2.92</v>
+      </c>
+      <c r="R4" s="10">
+        <f t="shared" si="4"/>
+        <v>4.42</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="5"/>
+        <v>33.770000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1981</v>
       </c>
@@ -710,8 +825,29 @@
         <f t="shared" si="1"/>
         <v>480.27</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+      <c r="N5" s="5">
+        <v>20737</v>
+      </c>
+      <c r="O5" s="11">
+        <v>17.66</v>
+      </c>
+      <c r="P5" s="12">
+        <v>10.88</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="3"/>
+        <v>3.96</v>
+      </c>
+      <c r="R5" s="10">
+        <f t="shared" si="4"/>
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="5"/>
+        <v>33.549999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1982</v>
       </c>
@@ -754,8 +890,29 @@
         <f t="shared" si="1"/>
         <v>485.01</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+      <c r="N6" s="5">
+        <v>22209</v>
+      </c>
+      <c r="O6" s="11">
+        <v>17.09</v>
+      </c>
+      <c r="P6" s="12">
+        <v>10.34</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="3"/>
+        <v>3.47</v>
+      </c>
+      <c r="R6" s="10">
+        <f t="shared" si="4"/>
+        <v>4.34</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="5"/>
+        <v>33.19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1983</v>
       </c>
@@ -798,8 +955,29 @@
         <f t="shared" si="1"/>
         <v>490.07</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+      <c r="N7" s="5">
+        <v>23198</v>
+      </c>
+      <c r="O7" s="11">
+        <v>16.440000000000001</v>
+      </c>
+      <c r="P7" s="12">
+        <v>10.44</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="3"/>
+        <v>3.79</v>
+      </c>
+      <c r="R7" s="10">
+        <f t="shared" si="4"/>
+        <v>4.3</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="5"/>
+        <v>33.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1984</v>
       </c>
@@ -842,8 +1020,29 @@
         <f t="shared" si="1"/>
         <v>519.32000000000005</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+      <c r="N8" s="5">
+        <v>28735</v>
+      </c>
+      <c r="O8" s="11">
+        <v>16.079999999999998</v>
+      </c>
+      <c r="P8" s="12">
+        <v>10.56</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="R8" s="10">
+        <f t="shared" si="4"/>
+        <v>4.29</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="5"/>
+        <v>33.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1985</v>
       </c>
@@ -886,8 +1085,29 @@
         <f t="shared" si="1"/>
         <v>548.55999999999995</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+      <c r="N9" s="5">
+        <v>30801</v>
+      </c>
+      <c r="O9" s="11">
+        <v>16.09</v>
+      </c>
+      <c r="P9" s="12">
+        <v>10.94</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="3"/>
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="R9" s="10">
+        <f t="shared" si="4"/>
+        <v>4.41</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="5"/>
+        <v>33.82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1986</v>
       </c>
@@ -930,8 +1150,29 @@
         <f t="shared" si="1"/>
         <v>558.37</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+      <c r="N10" s="5">
+        <v>34210</v>
+      </c>
+      <c r="O10" s="11">
+        <v>15.84</v>
+      </c>
+      <c r="P10" s="12">
+        <v>11.14</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="3"/>
+        <v>2.76</v>
+      </c>
+      <c r="R10" s="10">
+        <f t="shared" si="4"/>
+        <v>4.45</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="5"/>
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1987</v>
       </c>
@@ -974,8 +1215,29 @@
         <f t="shared" si="1"/>
         <v>546.77</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+      <c r="N11" s="5">
+        <v>37548</v>
+      </c>
+      <c r="O11" s="11">
+        <v>15.55</v>
+      </c>
+      <c r="P11" s="12">
+        <v>11.26</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="3"/>
+        <v>2.81</v>
+      </c>
+      <c r="R11" s="10">
+        <f t="shared" si="4"/>
+        <v>4.51</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="5"/>
+        <v>33.65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1988</v>
       </c>
@@ -1018,8 +1280,29 @@
         <f t="shared" si="1"/>
         <v>500.86</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+      <c r="N12" s="5">
+        <v>38205</v>
+      </c>
+      <c r="O12" s="11">
+        <v>15.78</v>
+      </c>
+      <c r="P12" s="12">
+        <v>11.53</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="3"/>
+        <v>3.03</v>
+      </c>
+      <c r="R12" s="10">
+        <f t="shared" si="4"/>
+        <v>4.7</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="5"/>
+        <v>34.020000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1989</v>
       </c>
@@ -1062,8 +1345,29 @@
         <f t="shared" si="1"/>
         <v>482.68</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+      <c r="N13" s="5">
+        <v>38955</v>
+      </c>
+      <c r="O13" s="11">
+        <v>16.11</v>
+      </c>
+      <c r="P13" s="12">
+        <v>11.76</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="3"/>
+        <v>3.21</v>
+      </c>
+      <c r="R13" s="10">
+        <f t="shared" si="4"/>
+        <v>4.93</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="5"/>
+        <v>34.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1990</v>
       </c>
@@ -1106,8 +1410,29 @@
         <f t="shared" si="1"/>
         <v>505.88</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+      <c r="N14" s="5">
+        <v>39859</v>
+      </c>
+      <c r="O14" s="11">
+        <v>14.88</v>
+      </c>
+      <c r="P14" s="12">
+        <v>11.59</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="3"/>
+        <v>3.37</v>
+      </c>
+      <c r="R14" s="10">
+        <f t="shared" si="4"/>
+        <v>4.68</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="5"/>
+        <v>34.57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1991</v>
       </c>
@@ -1150,8 +1475,29 @@
         <f t="shared" si="1"/>
         <v>534.61</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+      <c r="N15" s="5">
+        <v>41706</v>
+      </c>
+      <c r="O15" s="11">
+        <v>14.97</v>
+      </c>
+      <c r="P15" s="12">
+        <v>11.87</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="3"/>
+        <v>3.71</v>
+      </c>
+      <c r="R15" s="10">
+        <f t="shared" si="4"/>
+        <v>5.04</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="5"/>
+        <v>35.11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1992</v>
       </c>
@@ -1194,8 +1540,29 @@
         <f t="shared" si="1"/>
         <v>573.79999999999995</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+      <c r="N16" s="5">
+        <v>41052</v>
+      </c>
+      <c r="O16" s="11">
+        <v>15.1</v>
+      </c>
+      <c r="P16" s="12">
+        <v>12.17</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="3"/>
+        <v>4.16</v>
+      </c>
+      <c r="R16" s="10">
+        <f t="shared" si="4"/>
+        <v>5.53</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="5"/>
+        <v>37.07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1993</v>
       </c>
@@ -1238,8 +1605,29 @@
         <f t="shared" si="1"/>
         <v>567.72</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+      <c r="N17" s="5">
+        <v>43522</v>
+      </c>
+      <c r="O17" s="11">
+        <v>15.23</v>
+      </c>
+      <c r="P17" s="12">
+        <v>12.36</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="3"/>
+        <v>4.74</v>
+      </c>
+      <c r="R17" s="10">
+        <f t="shared" si="4"/>
+        <v>6.02</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="5"/>
+        <v>37.93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1994</v>
       </c>
@@ -1282,8 +1670,29 @@
         <f t="shared" si="1"/>
         <v>585.28</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+      <c r="N18" s="5">
+        <v>48006</v>
+      </c>
+      <c r="O18" s="11">
+        <v>15.46</v>
+      </c>
+      <c r="P18" s="12">
+        <v>12.72</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="3"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="R18" s="10">
+        <f t="shared" si="4"/>
+        <v>6.52</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="5"/>
+        <v>38.369999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1995</v>
       </c>
@@ -1326,8 +1735,29 @@
         <f t="shared" si="1"/>
         <v>646.82000000000005</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+      <c r="N19" s="5">
+        <v>49377</v>
+      </c>
+      <c r="O19" s="11">
+        <v>15.84</v>
+      </c>
+      <c r="P19" s="12">
+        <v>13.37</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="3"/>
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="R19" s="10">
+        <f t="shared" si="4"/>
+        <v>7.01</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="5"/>
+        <v>41.08</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1996</v>
       </c>
@@ -1370,8 +1800,29 @@
         <f t="shared" si="1"/>
         <v>690.25</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+      <c r="N20" s="5">
+        <v>50389</v>
+      </c>
+      <c r="O20" s="11">
+        <v>16.3</v>
+      </c>
+      <c r="P20" s="12">
+        <v>14.15</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="3"/>
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="R20" s="10">
+        <f t="shared" si="4"/>
+        <v>7.62</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="5"/>
+        <v>43.67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1997</v>
       </c>
@@ -1414,8 +1865,29 @@
         <f t="shared" si="1"/>
         <v>699.12</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+      <c r="N21" s="5">
+        <v>54459</v>
+      </c>
+      <c r="O21" s="11">
+        <v>16.84</v>
+      </c>
+      <c r="P21" s="12">
+        <v>14.74</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="3"/>
+        <v>4.22</v>
+      </c>
+      <c r="R21" s="10">
+        <f t="shared" si="4"/>
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="5"/>
+        <v>46.26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1998</v>
       </c>
@@ -1458,8 +1930,29 @@
         <f t="shared" si="1"/>
         <v>695.88</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+      <c r="N22" s="5">
+        <v>58867</v>
+      </c>
+      <c r="O22" s="11">
+        <v>17.170000000000002</v>
+      </c>
+      <c r="P22" s="12">
+        <v>15.11</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="3"/>
+        <v>4.18</v>
+      </c>
+      <c r="R22" s="10">
+        <f t="shared" si="4"/>
+        <v>10.16</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="5"/>
+        <v>48.31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1999</v>
       </c>
@@ -1502,8 +1995,29 @@
         <f t="shared" si="1"/>
         <v>761.77</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+      <c r="N23" s="5">
+        <v>61549</v>
+      </c>
+      <c r="O23" s="11">
+        <v>17.53</v>
+      </c>
+      <c r="P23" s="12">
+        <v>15.78</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="3"/>
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="R23" s="10">
+        <f t="shared" si="4"/>
+        <v>12.7</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="5"/>
+        <v>52.69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>2000</v>
       </c>
@@ -1546,8 +2060,29 @@
         <f t="shared" si="1"/>
         <v>848.81</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+      <c r="N24" s="5">
+        <v>67773</v>
+      </c>
+      <c r="O24" s="11">
+        <v>17.57</v>
+      </c>
+      <c r="P24" s="12">
+        <v>16.52</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="3"/>
+        <v>4.5</v>
+      </c>
+      <c r="R24" s="10">
+        <f t="shared" si="4"/>
+        <v>14.89</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="5"/>
+        <v>56.19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>2001</v>
       </c>
@@ -1590,8 +2125,29 @@
         <f t="shared" si="1"/>
         <v>906.9</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+      <c r="N25" s="5">
+        <v>72593</v>
+      </c>
+      <c r="O25" s="11">
+        <v>17.64</v>
+      </c>
+      <c r="P25" s="12">
+        <v>17.7</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="3"/>
+        <v>5.81</v>
+      </c>
+      <c r="R25" s="10">
+        <f t="shared" si="4"/>
+        <v>17.64</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="5"/>
+        <v>61.03</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>2002</v>
       </c>
@@ -1634,8 +2190,29 @@
         <f t="shared" si="1"/>
         <v>971.95</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+      <c r="N26" s="5">
+        <v>75000</v>
+      </c>
+      <c r="O26" s="11">
+        <v>17.649999999999999</v>
+      </c>
+      <c r="P26" s="12">
+        <v>18.25</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="3"/>
+        <v>6.29</v>
+      </c>
+      <c r="R26" s="10">
+        <f t="shared" si="4"/>
+        <v>19.61</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="5"/>
+        <v>65.62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>2003</v>
       </c>
@@ -1678,8 +2255,29 @@
         <f t="shared" si="1"/>
         <v>1002.12</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+      <c r="N27" s="5">
+        <v>83022</v>
+      </c>
+      <c r="O27" s="11">
+        <v>17.54</v>
+      </c>
+      <c r="P27" s="12">
+        <v>18.78</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="3"/>
+        <v>7.18</v>
+      </c>
+      <c r="R27" s="10">
+        <f t="shared" si="4"/>
+        <v>22.78</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="5"/>
+        <v>69.680000000000007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>2004</v>
       </c>
@@ -1722,8 +2320,29 @@
         <f t="shared" si="1"/>
         <v>1020.08</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+      <c r="N28" s="5">
+        <v>91772</v>
+      </c>
+      <c r="O28" s="11">
+        <v>17.61</v>
+      </c>
+      <c r="P28" s="12">
+        <v>19.170000000000002</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="3"/>
+        <v>8.07</v>
+      </c>
+      <c r="R28" s="10">
+        <f t="shared" si="4"/>
+        <v>26.28</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="5"/>
+        <v>73.48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2005</v>
       </c>
@@ -1766,8 +2385,29 @@
         <f t="shared" si="1"/>
         <v>1034.3900000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+      <c r="N29" s="5">
+        <v>98629</v>
+      </c>
+      <c r="O29" s="11">
+        <v>17.79</v>
+      </c>
+      <c r="P29" s="12">
+        <v>19.489999999999998</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="3"/>
+        <v>8.6</v>
+      </c>
+      <c r="R29" s="10">
+        <f t="shared" si="4"/>
+        <v>29.16</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="5"/>
+        <v>77.22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>2006</v>
       </c>
@@ -1810,8 +2450,29 @@
         <f t="shared" si="1"/>
         <v>1066.78</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+      <c r="N30" s="5">
+        <v>106202</v>
+      </c>
+      <c r="O30" s="11">
+        <v>17.98</v>
+      </c>
+      <c r="P30" s="12">
+        <v>19.82</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="3"/>
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="R30" s="10">
+        <f t="shared" si="4"/>
+        <v>32.69</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="5"/>
+        <v>80.599999999999994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2007</v>
       </c>
@@ -1854,8 +2515,29 @@
         <f t="shared" si="1"/>
         <v>1108.78</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+      <c r="N31" s="5">
+        <v>115965</v>
+      </c>
+      <c r="O31" s="11">
+        <v>18.12</v>
+      </c>
+      <c r="P31" s="12">
+        <v>20.05</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="3"/>
+        <v>11.14</v>
+      </c>
+      <c r="R31" s="10">
+        <f t="shared" si="4"/>
+        <v>37.75</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="5"/>
+        <v>83.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>2008</v>
       </c>
@@ -1898,8 +2580,29 @@
         <f t="shared" si="1"/>
         <v>1135.04</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+      <c r="N32" s="5">
+        <v>127635</v>
+      </c>
+      <c r="O32" s="11">
+        <v>18.28</v>
+      </c>
+      <c r="P32" s="12">
+        <v>20.36</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="3"/>
+        <v>12.5</v>
+      </c>
+      <c r="R32" s="10">
+        <f t="shared" si="4"/>
+        <v>41.55</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="5"/>
+        <v>85.65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2009</v>
       </c>
@@ -1942,8 +2645,29 @@
         <f t="shared" si="1"/>
         <v>1114.6199999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+      <c r="N33" s="5">
+        <v>139977</v>
+      </c>
+      <c r="O33" s="11">
+        <v>18.45</v>
+      </c>
+      <c r="P33" s="12">
+        <v>20.56</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="3"/>
+        <v>13.9</v>
+      </c>
+      <c r="R33" s="10">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="5"/>
+        <v>87.38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>2010</v>
       </c>
@@ -1986,8 +2710,29 @@
         <f t="shared" si="1"/>
         <v>1102.6400000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+      <c r="N34" s="5">
+        <v>157174</v>
+      </c>
+      <c r="O34" s="11">
+        <v>18.61</v>
+      </c>
+      <c r="P34" s="12">
+        <v>20.82</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="3"/>
+        <v>15.94</v>
+      </c>
+      <c r="R34" s="10">
+        <f t="shared" si="4"/>
+        <v>46.53</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="5"/>
+        <v>89.97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>2011</v>
       </c>
@@ -2030,8 +2775,29 @@
         <f t="shared" si="1"/>
         <v>1056.6099999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+      <c r="N35" s="5">
+        <v>168497</v>
+      </c>
+      <c r="O35" s="11">
+        <v>18.53</v>
+      </c>
+      <c r="P35" s="12">
+        <v>21.05</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="3"/>
+        <v>17.46</v>
+      </c>
+      <c r="R35" s="10">
+        <f t="shared" si="4"/>
+        <v>48.76</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="5"/>
+        <v>90.97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>2012</v>
       </c>
@@ -2074,8 +2840,29 @@
         <f t="shared" si="1"/>
         <v>1027.23</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+      <c r="N36" s="5">
+        <v>180518</v>
+      </c>
+      <c r="O36" s="11">
+        <v>19.03</v>
+      </c>
+      <c r="P36" s="12">
+        <v>21.15</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="3"/>
+        <v>18.86</v>
+      </c>
+      <c r="R36" s="10">
+        <f t="shared" si="4"/>
+        <v>51.43</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="5"/>
+        <v>91.72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>2013</v>
       </c>
@@ -2118,8 +2905,29 @@
         <f t="shared" si="1"/>
         <v>1011.5</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+      <c r="N37" s="5">
+        <v>190186</v>
+      </c>
+      <c r="O37" s="11">
+        <v>19.440000000000001</v>
+      </c>
+      <c r="P37" s="12">
+        <v>21.14</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="3"/>
+        <v>20.65</v>
+      </c>
+      <c r="R37" s="10">
+        <f t="shared" si="4"/>
+        <v>57.18</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="5"/>
+        <v>92.07</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>2014</v>
       </c>
@@ -2162,8 +2970,29 @@
         <f t="shared" si="1"/>
         <v>1004.34</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+      <c r="N38" s="5">
+        <v>200295</v>
+      </c>
+      <c r="O38" s="11">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="P38" s="12">
+        <v>21.31</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="3"/>
+        <v>22.58</v>
+      </c>
+      <c r="R38" s="10">
+        <f t="shared" si="4"/>
+        <v>61.18</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="5"/>
+        <v>93.46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>2015</v>
       </c>
@@ -2206,8 +3035,29 @@
         <f t="shared" si="1"/>
         <v>990.2</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+      <c r="N39" s="5">
+        <v>212385</v>
+      </c>
+      <c r="O39" s="11">
+        <v>20.5</v>
+      </c>
+      <c r="P39" s="12">
+        <v>21.44</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="3"/>
+        <v>23.84</v>
+      </c>
+      <c r="R39" s="10">
+        <f t="shared" si="4"/>
+        <v>62.12</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="5"/>
+        <v>94.24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>2016</v>
       </c>
@@ -2250,8 +3100,29 @@
         <f t="shared" si="1"/>
         <v>990.27</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+      <c r="N40" s="5">
+        <v>223377</v>
+      </c>
+      <c r="O40" s="11">
+        <v>20.92</v>
+      </c>
+      <c r="P40" s="12">
+        <v>21.77</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="3"/>
+        <v>25.47</v>
+      </c>
+      <c r="R40" s="10">
+        <f t="shared" si="4"/>
+        <v>63.39</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="5"/>
+        <v>95.02</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>2017</v>
       </c>
@@ -2294,8 +3165,29 @@
         <f t="shared" si="1"/>
         <v>1007.26</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+      <c r="N41" s="5">
+        <v>231543</v>
+      </c>
+      <c r="O41" s="11">
+        <v>21.33</v>
+      </c>
+      <c r="P41" s="12">
+        <v>22.12</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="3"/>
+        <v>26.78</v>
+      </c>
+      <c r="R41" s="10">
+        <f t="shared" si="4"/>
+        <v>64.64</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="5"/>
+        <v>95.55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>2018</v>
       </c>
@@ -2338,8 +3230,29 @@
         <f t="shared" si="1"/>
         <v>1021.82</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+      <c r="N42" s="5">
+        <v>240263</v>
+      </c>
+      <c r="O42" s="11">
+        <v>21.87</v>
+      </c>
+      <c r="P42" s="12">
+        <v>22.53</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="3"/>
+        <v>28.42</v>
+      </c>
+      <c r="R42" s="10">
+        <f t="shared" si="4"/>
+        <v>66.27</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="5"/>
+        <v>96.57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>2019</v>
       </c>
@@ -2382,8 +3295,29 @@
         <f t="shared" si="1"/>
         <v>1032.49</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+      <c r="N43" s="5">
+        <v>250051</v>
+      </c>
+      <c r="O43" s="11">
+        <v>22.43</v>
+      </c>
+      <c r="P43" s="12">
+        <v>22.95</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="3"/>
+        <v>30.27</v>
+      </c>
+      <c r="R43" s="10">
+        <f t="shared" si="4"/>
+        <v>67.97</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="5"/>
+        <v>97.87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>2020</v>
       </c>
@@ -2425,6 +3359,27 @@
       <c r="M44" s="2">
         <f t="shared" si="1"/>
         <v>1031.81</v>
+      </c>
+      <c r="N44" s="5">
+        <v>264601</v>
+      </c>
+      <c r="O44" s="11">
+        <v>22.98</v>
+      </c>
+      <c r="P44" s="12">
+        <v>23.46</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="3"/>
+        <v>33.04</v>
+      </c>
+      <c r="R44" s="10">
+        <f t="shared" si="4"/>
+        <v>69.64</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="5"/>
+        <v>98.99</v>
       </c>
     </row>
   </sheetData>
